--- a/medicine/Pharmacie/1936_en_santé_et_médecine/1936_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1936_en_santé_et_médecine/1936_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1936_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1936_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1936 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1936_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1936_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>14 septembre : les médecins américains Walter Jackson Freeman et James W. Watts pratiquent la première lobotomie frontale à l'hôpital de l'université George Washington[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>14 septembre : les médecins américains Walter Jackson Freeman et James W. Watts pratiquent la première lobotomie frontale à l'hôpital de l'université George Washington.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1936_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1936_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>10 décembre : prix Nobel de physiologie ou médecine : Sir Henry Hallett Dale, Otto Loewi.</t>
         </is>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1936_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1936_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>30 août : Jacques Glowinski (mort en 2020), pharmacien et chercheur en biologie spécialisé en neurobiologie et neuropharmacologie.</t>
         </is>
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1936_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1936_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,12 +619,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>27 février : Ivan Pavlov (né en 1849), médecin et physiologiste russe, lauréat du prix Nobel de physiologie ou médecine de 1904 et de la médaille Copley en 1915.
 28 février : Charles Nicolle (né en 1866), médecin et microbiologiste français, lauréat du prix Nobel de physiologie ou médecine de 1928.
 16 septembre : Jean-Baptiste Charcot (né en 1867), médecin et explorateur polaire français.
-16 novembre : Victor Pauchet (né en 1869), chirurgien français[2].
+16 novembre : Victor Pauchet (né en 1869), chirurgien français.
 Date à préciser
 Joachim Carvallo (né en 1869), médecin et mécène d'origine espagnole, connu pour sa restauration des jardins et du château de Villandry.</t>
         </is>
